--- a/Documents/BOM.xlsx
+++ b/Documents/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Loris\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4FC6E6-E311-4941-A0DD-C1A8C515BF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5FE8DDA-956A-4D13-91CD-DB9871D5A807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
   <si>
     <t>Cover</t>
   </si>
@@ -97,13 +97,124 @@
   </si>
   <si>
     <t>Binari MGN (oltre a quelli nativi per BLV)</t>
+  </si>
+  <si>
+    <t>Per l'asse x (ma anche per y) non andate al risparmio, servono guide "di razza" e con tolleranze dignitose</t>
+  </si>
+  <si>
+    <t>Inutile avere una ferrari con le sospensioni di una punto….</t>
+  </si>
+  <si>
+    <t>Portelle</t>
+  </si>
+  <si>
+    <t>M4x45mm</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>I link sono da considerarsi come "idee di acquisto", se trovate di meglio ben venga</t>
+  </si>
+  <si>
+    <t>Ferramenta e altro</t>
+  </si>
+  <si>
+    <t>Caratteristica</t>
+  </si>
+  <si>
+    <t>Abec7/Abec9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puleggia motore Gt20 </t>
+  </si>
+  <si>
+    <t>6mm</t>
+  </si>
+  <si>
+    <t>Cuscinetto F595ZZ/RS</t>
+  </si>
+  <si>
+    <t>Cinematica</t>
+  </si>
+  <si>
+    <t>Pin 5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L 28mm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perno a testa piatta </t>
+  </si>
+  <si>
+    <t>Elettronica</t>
+  </si>
+  <si>
+    <t>Fly super 8 Pro</t>
+  </si>
+  <si>
+    <t>Spider 3.0</t>
+  </si>
+  <si>
+    <t>In base alla board scelta potrebbe essere necessario acquistare uno stepdown per alimentare il pi4, la fly ha gia l'uscita a 5v e non serve.</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Link alternativi</t>
+  </si>
+  <si>
+    <t>Alimentazione</t>
+  </si>
+  <si>
+    <t>Meanwell lrs-250-24</t>
+  </si>
+  <si>
+    <t>Meanwell lrs-250-48</t>
+  </si>
+  <si>
+    <t>Wago</t>
+  </si>
+  <si>
+    <t>SSR piatto</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 40 DA</t>
+  </si>
+  <si>
+    <t>Modulo ingresso 220v con bottone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelly  </t>
+  </si>
+  <si>
+    <t>1/1pm</t>
+  </si>
+  <si>
+    <t>Per i meno esigenti lo shelly 1 non ha il monitoraggio del consumo e costa meno, per il resto sono identici</t>
+  </si>
+  <si>
+    <t>Controller</t>
+  </si>
+  <si>
+    <t>Controller Logico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raspberry Pi4 </t>
+  </si>
+  <si>
+    <t>2gb</t>
+  </si>
+  <si>
+    <t>3-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,8 +283,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +330,31 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -363,24 +520,75 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -390,69 +598,99 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="8" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="8" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="8" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="13" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="14" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="9">
+    <cellStyle name="40% - Colore 1" xfId="5" builtinId="31"/>
+    <cellStyle name="40% - Colore 4" xfId="7" builtinId="43"/>
+    <cellStyle name="60% - Colore 1" xfId="6" builtinId="32"/>
     <cellStyle name="60% - Colore 6" xfId="3" builtinId="52"/>
+    <cellStyle name="Collegamento ipertestuale" xfId="8" builtinId="8"/>
+    <cellStyle name="Neutrale" xfId="4" builtinId="28"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
     <cellStyle name="Valore non valido" xfId="2" builtinId="27"/>
     <cellStyle name="Valore valido" xfId="1" builtinId="26"/>
@@ -733,202 +971,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:Q15"/>
+  <dimension ref="B3:T37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="5.42578125" customWidth="1"/>
+    <col min="7" max="7" width="2.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:17" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
     </row>
     <row r="4" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="22" t="s">
+      <c r="E4" s="31" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="14">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="22"/>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="29" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="15">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="7" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="25">
+      <c r="E7" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="26">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
     </row>
     <row r="9" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="17">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="E13" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="13" t="s">
+      <c r="F14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="14"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
     </row>
     <row r="15" spans="2:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="21"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="27"/>
+      <c r="C15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="25">
+      <c r="E15" s="16">
         <v>1</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="14"/>
-      <c r="Q15" s="14"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:20" ht="26.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:20" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+    </row>
+    <row r="21" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="20">
+        <v>4</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="H22" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B23" s="39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E23" s="18">
+        <v>20</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B24" s="40"/>
+      <c r="C24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="35">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="41"/>
+      <c r="C25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E25" s="19">
+        <v>4</v>
+      </c>
+      <c r="F25" s="37"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B28" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+    </row>
+    <row r="29" spans="2:20" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="I29" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="J29" s="44"/>
+      <c r="K29" s="44"/>
+      <c r="L29" s="44"/>
+      <c r="M29" s="44"/>
+      <c r="N29" s="44"/>
+      <c r="O29" s="44"/>
+      <c r="P29" s="44"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="44"/>
+      <c r="S29" s="44"/>
+      <c r="T29" s="44"/>
+    </row>
+    <row r="30" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="H30" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="45"/>
+    </row>
+    <row r="31" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B31" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="C31" s="56" t="s">
+        <v>47</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57">
+        <v>1</v>
+      </c>
+      <c r="F31" s="33"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B32" s="52"/>
+      <c r="C32" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59">
+        <v>1</v>
+      </c>
+      <c r="F32" s="36"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B33" s="52"/>
+      <c r="C33" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E33" s="59">
+        <v>1</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="H33" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="I33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="52"/>
+      <c r="C34" s="60" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="52"/>
+      <c r="C35" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="59" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="59">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="53"/>
+      <c r="C36" s="61" t="s">
+        <v>52</v>
+      </c>
+      <c r="D36" s="62"/>
+      <c r="E36" s="62">
+        <v>1</v>
+      </c>
+      <c r="F36" s="50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="E37" s="20"/>
+      <c r="F37" s="45"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="13">
+    <mergeCell ref="H22:O22"/>
+    <mergeCell ref="I29:T29"/>
+    <mergeCell ref="B31:B36"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B28:E28"/>
     <mergeCell ref="B5:B7"/>
     <mergeCell ref="G8:Q8"/>
     <mergeCell ref="B3:E3"/>
@@ -937,7 +1457,19 @@
     <mergeCell ref="G14:Q14"/>
     <mergeCell ref="G15:Q15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F22" r:id="rId1" xr:uid="{53AEFF79-5F35-4DAE-AEFE-4C9365369E58}"/>
+    <hyperlink ref="F24" r:id="rId2" xr:uid="{9D6044C3-F345-4D6B-9899-B0107BA8C3BC}"/>
+    <hyperlink ref="F23" r:id="rId3" xr:uid="{A18AC4D7-2703-4A7D-8954-392F42D8B1EC}"/>
+    <hyperlink ref="F30" r:id="rId4" xr:uid="{EA177941-C685-481A-835D-6399AD5295B1}"/>
+    <hyperlink ref="H30" r:id="rId5" xr:uid="{3F3D81A1-0E69-4A1B-B828-D221BCCE0E5A}"/>
+    <hyperlink ref="F35" r:id="rId6" xr:uid="{044DDF9A-2F82-4F44-A062-021A6B9234D4}"/>
+    <hyperlink ref="F34" r:id="rId7" xr:uid="{3CC4D7EF-998A-4E26-BE62-C3539C9F79AD}"/>
+    <hyperlink ref="F36" r:id="rId8" xr:uid="{4934E9E7-0662-452C-BD46-E6C836461C15}"/>
+    <hyperlink ref="F33" r:id="rId9" xr:uid="{BBCB781B-ADE7-4DEE-835B-C3C7AE203620}"/>
+    <hyperlink ref="H33" r:id="rId10" xr:uid="{36025502-2635-4E40-ACD2-8CDCBF69AC10}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>